--- a/DOCUMENT/FatigueData.xlsx
+++ b/DOCUMENT/FatigueData.xlsx
@@ -12,9 +12,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
   </si>
 </sst>
 </file>
@@ -60,7 +99,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -70,24 +109,234 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>131.61</v>
+        <v>90</v>
+      </c>
+      <c r="B2" s="0">
+        <v>90</v>
+      </c>
+      <c r="C2" s="0">
+        <v>90</v>
+      </c>
+      <c r="D2" s="0">
+        <v>90</v>
+      </c>
+      <c r="E2" s="0">
+        <v>90</v>
+      </c>
+      <c r="F2" s="0">
+        <v>90</v>
+      </c>
+      <c r="G2" s="0">
+        <v>90</v>
+      </c>
+      <c r="H2" s="0">
+        <v>90</v>
+      </c>
+      <c r="I2" s="0">
+        <v>90</v>
+      </c>
+      <c r="J2" s="0">
+        <v>90</v>
+      </c>
+      <c r="K2" s="0">
+        <v>90</v>
+      </c>
+      <c r="L2" s="0">
+        <v>90</v>
+      </c>
+      <c r="M2" s="0">
+        <v>90</v>
+      </c>
+      <c r="N2" s="0">
+        <v>90</v>
+      </c>
+      <c r="O2" s="0">
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>3</v>
+        <v>3.1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>3.1</v>
+      </c>
+      <c r="C3" s="0">
+        <v>3.1</v>
+      </c>
+      <c r="D3" s="0">
+        <v>3.1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>3.1</v>
+      </c>
+      <c r="F3" s="0">
+        <v>3.1</v>
+      </c>
+      <c r="G3" s="0">
+        <v>3.1</v>
+      </c>
+      <c r="H3" s="0">
+        <v>3.1</v>
+      </c>
+      <c r="I3" s="0">
+        <v>3.1</v>
+      </c>
+      <c r="J3" s="0">
+        <v>3.1</v>
+      </c>
+      <c r="K3" s="0">
+        <v>3.1</v>
+      </c>
+      <c r="L3" s="0">
+        <v>3.1</v>
+      </c>
+      <c r="M3" s="0">
+        <v>3.1</v>
+      </c>
+      <c r="N3" s="0">
+        <v>3.1</v>
+      </c>
+      <c r="O3" s="0">
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
         <v>1.1</v>
       </c>
+      <c r="B4" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="D4" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="E4" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="F4" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="G4" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="H4" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="I4" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="K4" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="L4" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="M4" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="N4" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="O4" s="0">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
+        <v>10000000</v>
+      </c>
+      <c r="B5" s="0">
+        <v>10000000</v>
+      </c>
+      <c r="C5" s="0">
+        <v>10000000</v>
+      </c>
+      <c r="D5" s="0">
+        <v>10000000</v>
+      </c>
+      <c r="E5" s="0">
+        <v>10000000</v>
+      </c>
+      <c r="F5" s="0">
+        <v>10000000</v>
+      </c>
+      <c r="G5" s="0">
+        <v>10000000</v>
+      </c>
+      <c r="H5" s="0">
+        <v>10000000</v>
+      </c>
+      <c r="I5" s="0">
+        <v>10000000</v>
+      </c>
+      <c r="J5" s="0">
+        <v>10000000</v>
+      </c>
+      <c r="K5" s="0">
+        <v>10000000</v>
+      </c>
+      <c r="L5" s="0">
+        <v>10000000</v>
+      </c>
+      <c r="M5" s="0">
+        <v>10000000</v>
+      </c>
+      <c r="N5" s="0">
+        <v>10000000</v>
+      </c>
+      <c r="O5" s="0">
         <v>10000000</v>
       </c>
     </row>
@@ -95,14 +344,140 @@
       <c r="A6" s="0">
         <v>4</v>
       </c>
+      <c r="B6" s="0">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0">
+        <v>4</v>
+      </c>
+      <c r="D6" s="0">
+        <v>3</v>
+      </c>
+      <c r="E6" s="0">
+        <v>3</v>
+      </c>
+      <c r="F6" s="0">
+        <v>3</v>
+      </c>
+      <c r="G6" s="0">
+        <v>3</v>
+      </c>
+      <c r="H6" s="0">
+        <v>3</v>
+      </c>
+      <c r="I6" s="0">
+        <v>3</v>
+      </c>
+      <c r="J6" s="0">
+        <v>3</v>
+      </c>
+      <c r="K6" s="0">
+        <v>3</v>
+      </c>
+      <c r="L6" s="0">
+        <v>3</v>
+      </c>
+      <c r="M6" s="0">
+        <v>3</v>
+      </c>
+      <c r="N6" s="0">
+        <v>3</v>
+      </c>
+      <c r="O6" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
         <v>15.117</v>
       </c>
+      <c r="B7" s="0">
+        <v>14.885</v>
+      </c>
+      <c r="C7" s="0">
+        <v>14.885</v>
+      </c>
+      <c r="D7" s="0">
+        <v>12.592</v>
+      </c>
+      <c r="E7" s="0">
+        <v>12.449</v>
+      </c>
+      <c r="F7" s="0">
+        <v>12.301</v>
+      </c>
+      <c r="G7" s="0">
+        <v>12.164</v>
+      </c>
+      <c r="H7" s="0">
+        <v>12.01</v>
+      </c>
+      <c r="I7" s="0">
+        <v>11.855</v>
+      </c>
+      <c r="J7" s="0">
+        <v>11.699</v>
+      </c>
+      <c r="K7" s="0">
+        <v>11.546</v>
+      </c>
+      <c r="L7" s="0">
+        <v>11.398</v>
+      </c>
+      <c r="M7" s="0">
+        <v>11.261</v>
+      </c>
+      <c r="N7" s="0">
+        <v>11.107</v>
+      </c>
+      <c r="O7" s="0">
+        <v>10.97</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0">
+        <v>5</v>
+      </c>
+      <c r="E8" s="0">
+        <v>5</v>
+      </c>
+      <c r="F8" s="0">
+        <v>5</v>
+      </c>
+      <c r="G8" s="0">
+        <v>5</v>
+      </c>
+      <c r="H8" s="0">
+        <v>5</v>
+      </c>
+      <c r="I8" s="0">
+        <v>5</v>
+      </c>
+      <c r="J8" s="0">
+        <v>5</v>
+      </c>
+      <c r="K8" s="0">
+        <v>5</v>
+      </c>
+      <c r="L8" s="0">
+        <v>5</v>
+      </c>
+      <c r="M8" s="0">
+        <v>5</v>
+      </c>
+      <c r="N8" s="0">
+        <v>5</v>
+      </c>
+      <c r="O8" s="0">
         <v>5</v>
       </c>
     </row>
@@ -110,24 +485,234 @@
       <c r="A9" s="0">
         <v>17.146</v>
       </c>
+      <c r="B9" s="0">
+        <v>16.856</v>
+      </c>
+      <c r="C9" s="0">
+        <v>16.856</v>
+      </c>
+      <c r="D9" s="0">
+        <v>16.32</v>
+      </c>
+      <c r="E9" s="0">
+        <v>16.081</v>
+      </c>
+      <c r="F9" s="0">
+        <v>15.835</v>
+      </c>
+      <c r="G9" s="0">
+        <v>15.606</v>
+      </c>
+      <c r="H9" s="0">
+        <v>15.35</v>
+      </c>
+      <c r="I9" s="0">
+        <v>15.091</v>
+      </c>
+      <c r="J9" s="0">
+        <v>14.832</v>
+      </c>
+      <c r="K9" s="0">
+        <v>14.576</v>
+      </c>
+      <c r="L9" s="0">
+        <v>14.33</v>
+      </c>
+      <c r="M9" s="0">
+        <v>14.101</v>
+      </c>
+      <c r="N9" s="0">
+        <v>13.845</v>
+      </c>
+      <c r="O9" s="0">
+        <v>13.617</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
         <v>20</v>
       </c>
+      <c r="B10" s="0">
+        <v>20</v>
+      </c>
+      <c r="C10" s="0">
+        <v>20</v>
+      </c>
+      <c r="D10" s="0">
+        <v>20</v>
+      </c>
+      <c r="E10" s="0">
+        <v>20</v>
+      </c>
+      <c r="F10" s="0">
+        <v>20</v>
+      </c>
+      <c r="G10" s="0">
+        <v>20</v>
+      </c>
+      <c r="H10" s="0">
+        <v>20</v>
+      </c>
+      <c r="I10" s="0">
+        <v>20</v>
+      </c>
+      <c r="J10" s="0">
+        <v>20</v>
+      </c>
+      <c r="K10" s="0">
+        <v>20</v>
+      </c>
+      <c r="L10" s="0">
+        <v>20</v>
+      </c>
+      <c r="M10" s="0">
+        <v>20</v>
+      </c>
+      <c r="N10" s="0">
+        <v>20</v>
+      </c>
+      <c r="O10" s="0">
+        <v>20</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
         <v>0.159</v>
       </c>
+      <c r="B11" s="0">
+        <v>0.159</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.159</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.159</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.159</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.159</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0.159</v>
+      </c>
+      <c r="H11" s="0">
+        <v>0.159</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0.159</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0.159</v>
+      </c>
+      <c r="K11" s="0">
+        <v>0.159</v>
+      </c>
+      <c r="L11" s="0">
+        <v>0.159</v>
+      </c>
+      <c r="M11" s="0">
+        <v>0.159</v>
+      </c>
+      <c r="N11" s="0">
+        <v>0.159</v>
+      </c>
+      <c r="O11" s="0">
+        <v>0.159</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="0">
+        <v>20</v>
+      </c>
+      <c r="C12" s="0">
+        <v>20</v>
+      </c>
+      <c r="D12" s="0">
+        <v>20</v>
+      </c>
+      <c r="E12" s="0">
+        <v>20</v>
+      </c>
+      <c r="F12" s="0">
+        <v>20</v>
+      </c>
+      <c r="G12" s="0">
+        <v>20</v>
+      </c>
+      <c r="H12" s="0">
+        <v>20</v>
+      </c>
+      <c r="I12" s="0">
+        <v>20</v>
+      </c>
+      <c r="J12" s="0">
+        <v>20</v>
+      </c>
+      <c r="K12" s="0">
+        <v>20</v>
+      </c>
+      <c r="L12" s="0">
+        <v>20</v>
+      </c>
+      <c r="M12" s="0">
+        <v>20</v>
+      </c>
+      <c r="N12" s="0">
+        <v>20</v>
+      </c>
+      <c r="O12" s="0">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
+        <v>25</v>
+      </c>
+      <c r="B13" s="0">
+        <v>25</v>
+      </c>
+      <c r="C13" s="0">
+        <v>25</v>
+      </c>
+      <c r="D13" s="0">
+        <v>25</v>
+      </c>
+      <c r="E13" s="0">
+        <v>25</v>
+      </c>
+      <c r="F13" s="0">
+        <v>25</v>
+      </c>
+      <c r="G13" s="0">
+        <v>25</v>
+      </c>
+      <c r="H13" s="0">
+        <v>25</v>
+      </c>
+      <c r="I13" s="0">
+        <v>25</v>
+      </c>
+      <c r="J13" s="0">
+        <v>25</v>
+      </c>
+      <c r="K13" s="0">
+        <v>25</v>
+      </c>
+      <c r="L13" s="0">
+        <v>25</v>
+      </c>
+      <c r="M13" s="0">
+        <v>25</v>
+      </c>
+      <c r="N13" s="0">
+        <v>25</v>
+      </c>
+      <c r="O13" s="0">
         <v>25</v>
       </c>
     </row>
@@ -135,24 +720,234 @@
       <c r="A14" s="0">
         <v>0</v>
       </c>
+      <c r="B14" s="0">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="K14" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="L14" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="M14" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="N14" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="O14" s="0">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
         <v>630720000</v>
       </c>
+      <c r="B15" s="0">
+        <v>630720000</v>
+      </c>
+      <c r="C15" s="0">
+        <v>630720000</v>
+      </c>
+      <c r="D15" s="0">
+        <v>630720000</v>
+      </c>
+      <c r="E15" s="0">
+        <v>630720000</v>
+      </c>
+      <c r="F15" s="0">
+        <v>630720000</v>
+      </c>
+      <c r="G15" s="0">
+        <v>630720000</v>
+      </c>
+      <c r="H15" s="0">
+        <v>630720000</v>
+      </c>
+      <c r="I15" s="0">
+        <v>630720000</v>
+      </c>
+      <c r="J15" s="0">
+        <v>630720000</v>
+      </c>
+      <c r="K15" s="0">
+        <v>630720000</v>
+      </c>
+      <c r="L15" s="0">
+        <v>630720000</v>
+      </c>
+      <c r="M15" s="0">
+        <v>630720000</v>
+      </c>
+      <c r="N15" s="0">
+        <v>630720000</v>
+      </c>
+      <c r="O15" s="0">
+        <v>630720000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
         <v>100284480</v>
       </c>
+      <c r="B16" s="0">
+        <v>100284480</v>
+      </c>
+      <c r="C16" s="0">
+        <v>100284480</v>
+      </c>
+      <c r="D16" s="0">
+        <v>100284480</v>
+      </c>
+      <c r="E16" s="0">
+        <v>100284480</v>
+      </c>
+      <c r="F16" s="0">
+        <v>100284480</v>
+      </c>
+      <c r="G16" s="0">
+        <v>100284480</v>
+      </c>
+      <c r="H16" s="0">
+        <v>100284480</v>
+      </c>
+      <c r="I16" s="0">
+        <v>100284480</v>
+      </c>
+      <c r="J16" s="0">
+        <v>100284480</v>
+      </c>
+      <c r="K16" s="0">
+        <v>100284480</v>
+      </c>
+      <c r="L16" s="0">
+        <v>100284480</v>
+      </c>
+      <c r="M16" s="0">
+        <v>100284480</v>
+      </c>
+      <c r="N16" s="0">
+        <v>100284480</v>
+      </c>
+      <c r="O16" s="0">
+        <v>100284480</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>27.93</v>
+        <v>19.736</v>
+      </c>
+      <c r="B17" s="0">
+        <v>19.736</v>
+      </c>
+      <c r="C17" s="0">
+        <v>19.736</v>
+      </c>
+      <c r="D17" s="0">
+        <v>19.736</v>
+      </c>
+      <c r="E17" s="0">
+        <v>19.736</v>
+      </c>
+      <c r="F17" s="0">
+        <v>19.736</v>
+      </c>
+      <c r="G17" s="0">
+        <v>19.736</v>
+      </c>
+      <c r="H17" s="0">
+        <v>19.736</v>
+      </c>
+      <c r="I17" s="0">
+        <v>19.736</v>
+      </c>
+      <c r="J17" s="0">
+        <v>19.736</v>
+      </c>
+      <c r="K17" s="0">
+        <v>19.736</v>
+      </c>
+      <c r="L17" s="0">
+        <v>19.736</v>
+      </c>
+      <c r="M17" s="0">
+        <v>19.736</v>
+      </c>
+      <c r="N17" s="0">
+        <v>19.736</v>
+      </c>
+      <c r="O17" s="0">
+        <v>19.736</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
+        <v>1</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0">
+        <v>1</v>
+      </c>
+      <c r="I18" s="0">
+        <v>1</v>
+      </c>
+      <c r="J18" s="0">
+        <v>1</v>
+      </c>
+      <c r="K18" s="0">
+        <v>1</v>
+      </c>
+      <c r="L18" s="0">
+        <v>1</v>
+      </c>
+      <c r="M18" s="0">
+        <v>1</v>
+      </c>
+      <c r="N18" s="0">
+        <v>1</v>
+      </c>
+      <c r="O18" s="0">
         <v>1</v>
       </c>
     </row>
@@ -160,9 +955,93 @@
       <c r="A19" s="0">
         <v>14.089</v>
       </c>
+      <c r="B19" s="0">
+        <v>14.089</v>
+      </c>
+      <c r="C19" s="0">
+        <v>14.089</v>
+      </c>
+      <c r="D19" s="0">
+        <v>4.306</v>
+      </c>
+      <c r="E19" s="0">
+        <v>4.306</v>
+      </c>
+      <c r="F19" s="0">
+        <v>4.306</v>
+      </c>
+      <c r="G19" s="0">
+        <v>4.306</v>
+      </c>
+      <c r="H19" s="0">
+        <v>4.306</v>
+      </c>
+      <c r="I19" s="0">
+        <v>4.306</v>
+      </c>
+      <c r="J19" s="0">
+        <v>4.306</v>
+      </c>
+      <c r="K19" s="0">
+        <v>4.306</v>
+      </c>
+      <c r="L19" s="0">
+        <v>4.306</v>
+      </c>
+      <c r="M19" s="0">
+        <v>4.306</v>
+      </c>
+      <c r="N19" s="0">
+        <v>4.306</v>
+      </c>
+      <c r="O19" s="0">
+        <v>4.306</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
+        <v>56.331</v>
+      </c>
+      <c r="B20" s="0">
+        <v>56.331</v>
+      </c>
+      <c r="C20" s="0">
+        <v>56.331</v>
+      </c>
+      <c r="D20" s="0">
+        <v>56.331</v>
+      </c>
+      <c r="E20" s="0">
+        <v>56.331</v>
+      </c>
+      <c r="F20" s="0">
+        <v>56.331</v>
+      </c>
+      <c r="G20" s="0">
+        <v>56.331</v>
+      </c>
+      <c r="H20" s="0">
+        <v>56.331</v>
+      </c>
+      <c r="I20" s="0">
+        <v>56.331</v>
+      </c>
+      <c r="J20" s="0">
+        <v>56.331</v>
+      </c>
+      <c r="K20" s="0">
+        <v>56.331</v>
+      </c>
+      <c r="L20" s="0">
+        <v>56.331</v>
+      </c>
+      <c r="M20" s="0">
+        <v>56.331</v>
+      </c>
+      <c r="N20" s="0">
+        <v>56.331</v>
+      </c>
+      <c r="O20" s="0">
         <v>56.331</v>
       </c>
     </row>
@@ -170,30 +1049,282 @@
       <c r="A21" s="0">
         <v>106.967</v>
       </c>
+      <c r="B21" s="0">
+        <v>93.594</v>
+      </c>
+      <c r="C21" s="0">
+        <v>93.594</v>
+      </c>
+      <c r="D21" s="0">
+        <v>73.114</v>
+      </c>
+      <c r="E21" s="0">
+        <v>65.514</v>
+      </c>
+      <c r="F21" s="0">
+        <v>58.479</v>
+      </c>
+      <c r="G21" s="0">
+        <v>52.642</v>
+      </c>
+      <c r="H21" s="0">
+        <v>46.774</v>
+      </c>
+      <c r="I21" s="0">
+        <v>41.527</v>
+      </c>
+      <c r="J21" s="0">
+        <v>36.841</v>
+      </c>
+      <c r="K21" s="0">
+        <v>32.759</v>
+      </c>
+      <c r="L21" s="0">
+        <v>29.242</v>
+      </c>
+      <c r="M21" s="0">
+        <v>26.323</v>
+      </c>
+      <c r="N21" s="0">
+        <v>23.388</v>
+      </c>
+      <c r="O21" s="0">
+        <v>21.054</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>4.38</v>
+        <v>6.418</v>
+      </c>
+      <c r="B22" s="0">
+        <v>5.541</v>
+      </c>
+      <c r="C22" s="0">
+        <v>5.541</v>
+      </c>
+      <c r="D22" s="0">
+        <v>4.223</v>
+      </c>
+      <c r="E22" s="0">
+        <v>3.743</v>
+      </c>
+      <c r="F22" s="0">
+        <v>3.303</v>
+      </c>
+      <c r="G22" s="0">
+        <v>2.942</v>
+      </c>
+      <c r="H22" s="0">
+        <v>2.583</v>
+      </c>
+      <c r="I22" s="0">
+        <v>2.267</v>
+      </c>
+      <c r="J22" s="0">
+        <v>1.987</v>
+      </c>
+      <c r="K22" s="0">
+        <v>1.746</v>
+      </c>
+      <c r="L22" s="0">
+        <v>1.541</v>
+      </c>
+      <c r="M22" s="0">
+        <v>1.373</v>
+      </c>
+      <c r="N22" s="0">
+        <v>1.205</v>
+      </c>
+      <c r="O22" s="0">
+        <v>1.074</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.514</v>
+        <v>0.814</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.708</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0.708</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0.662</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0.572</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0.479</v>
+      </c>
+      <c r="G23" s="0">
+        <v>0.396</v>
+      </c>
+      <c r="H23" s="0">
+        <v>0.313</v>
+      </c>
+      <c r="I23" s="0">
+        <v>0.24</v>
+      </c>
+      <c r="J23" s="0">
+        <v>0.179</v>
+      </c>
+      <c r="K23" s="0">
+        <v>0.132</v>
+      </c>
+      <c r="L23" s="0">
+        <v>0.096</v>
+      </c>
+      <c r="M23" s="0">
+        <v>0.071</v>
+      </c>
+      <c r="N23" s="0">
+        <v>0.049</v>
+      </c>
+      <c r="O23" s="0">
+        <v>0.035</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.348</v>
+        <v>0.689</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.556</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0.556</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.32</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.235</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0.165</v>
+      </c>
+      <c r="G24" s="0">
+        <v>0.115</v>
+      </c>
+      <c r="H24" s="0">
+        <v>0.074</v>
+      </c>
+      <c r="I24" s="0">
+        <v>0.046</v>
+      </c>
+      <c r="J24" s="0">
+        <v>0.028</v>
+      </c>
+      <c r="K24" s="0">
+        <v>0.017</v>
+      </c>
+      <c r="L24" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="M24" s="0">
+        <v>0.006</v>
+      </c>
+      <c r="N24" s="0">
+        <v>0.003</v>
+      </c>
+      <c r="O24" s="0">
+        <v>0.002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.558</v>
+        <v>0.114</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.212</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0.212</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.546</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0.835</v>
+      </c>
+      <c r="F25" s="0">
+        <v>1.272</v>
+      </c>
+      <c r="G25" s="0">
+        <v>1.854</v>
+      </c>
+      <c r="H25" s="0">
+        <v>2.789</v>
+      </c>
+      <c r="I25" s="0">
+        <v>4.157</v>
+      </c>
+      <c r="J25" s="0">
+        <v>6.142</v>
+      </c>
+      <c r="K25" s="0">
+        <v>8.939</v>
+      </c>
+      <c r="L25" s="0">
+        <v>12.772</v>
+      </c>
+      <c r="M25" s="0">
+        <v>17.703</v>
+      </c>
+      <c r="N25" s="0">
+        <v>25.461</v>
+      </c>
+      <c r="O25" s="0">
+        <v>35.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>35.83</v>
+        <v>175.755</v>
+      </c>
+      <c r="B26" s="0">
+        <v>94.144</v>
+      </c>
+      <c r="C26" s="0">
+        <v>94.144</v>
+      </c>
+      <c r="D26" s="0">
+        <v>36.637</v>
+      </c>
+      <c r="E26" s="0">
+        <v>23.95</v>
+      </c>
+      <c r="F26" s="0">
+        <v>15.718</v>
+      </c>
+      <c r="G26" s="0">
+        <v>10.786</v>
+      </c>
+      <c r="H26" s="0">
+        <v>7.17</v>
+      </c>
+      <c r="I26" s="0">
+        <v>4.812</v>
+      </c>
+      <c r="J26" s="0">
+        <v>3.256</v>
+      </c>
+      <c r="K26" s="0">
+        <v>2.237</v>
+      </c>
+      <c r="L26" s="0">
+        <v>1.566</v>
+      </c>
+      <c r="M26" s="0">
+        <v>1.13</v>
+      </c>
+      <c r="N26" s="0">
+        <v>0.786</v>
+      </c>
+      <c r="O26" s="0">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>

--- a/DOCUMENT/FatigueData.xlsx
+++ b/DOCUMENT/FatigueData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vu.le\OneDrive - Bluetech Finland Oy\Tiedostot\GitHub\Fatigue\DOCUMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\Fatigue\DOCUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163C5052-9201-41B9-A852-7B56DA751F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B4339C-1173-4465-A174-935F9F487B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,25 +426,25 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="B3" s="0">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="C3" s="0">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="0">
         <v>3.1</v>
       </c>
       <c r="E3" s="0">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F3" s="0">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="G3" s="0">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4">
@@ -587,25 +587,25 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B10" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0">
         <v>20</v>
       </c>
       <c r="D10" s="0">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10" s="0">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F10" s="0">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G10" s="0">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -702,71 +702,71 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>315360000</v>
+        <v>630720000</v>
       </c>
       <c r="B15" s="0">
-        <v>473040000</v>
+        <v>630720000</v>
       </c>
       <c r="C15" s="0">
         <v>630720000</v>
       </c>
       <c r="D15" s="0">
-        <v>788400000</v>
+        <v>630720000</v>
       </c>
       <c r="E15" s="0">
-        <v>946080000</v>
+        <v>630720000</v>
       </c>
       <c r="F15" s="0">
-        <v>1261440000</v>
+        <v>630720000</v>
       </c>
       <c r="G15" s="0">
-        <v>1576800000</v>
+        <v>630720000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>50142240</v>
+        <v>100284480</v>
       </c>
       <c r="B16" s="0">
-        <v>75213360</v>
+        <v>100284480</v>
       </c>
       <c r="C16" s="0">
         <v>100284480</v>
       </c>
       <c r="D16" s="0">
-        <v>125355600</v>
+        <v>100284480</v>
       </c>
       <c r="E16" s="0">
-        <v>150426720</v>
+        <v>100284480</v>
       </c>
       <c r="F16" s="0">
-        <v>200568960</v>
+        <v>100284480</v>
       </c>
       <c r="G16" s="0">
-        <v>250711200</v>
+        <v>100284480</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>20.436</v>
+        <v>17.826</v>
       </c>
       <c r="B17" s="0">
-        <v>20.021</v>
+        <v>18.463</v>
       </c>
       <c r="C17" s="0">
+        <v>19.1</v>
+      </c>
+      <c r="D17" s="0">
         <v>19.736</v>
       </c>
-      <c r="D17" s="0">
-        <v>19.521</v>
-      </c>
       <c r="E17" s="0">
-        <v>19.35</v>
+        <v>20.373</v>
       </c>
       <c r="F17" s="0">
-        <v>19.085</v>
+        <v>21.01</v>
       </c>
       <c r="G17" s="0">
-        <v>18.884</v>
+        <v>21.646</v>
       </c>
     </row>
     <row r="18">
@@ -863,117 +863,117 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>6.176</v>
+        <v>7.178</v>
       </c>
       <c r="B22" s="0">
-        <v>6.318</v>
+        <v>6.906</v>
       </c>
       <c r="C22" s="0">
+        <v>6.653</v>
+      </c>
+      <c r="D22" s="0">
         <v>6.418</v>
       </c>
-      <c r="D22" s="0">
-        <v>6.495</v>
-      </c>
       <c r="E22" s="0">
-        <v>6.559</v>
+        <v>6.197</v>
       </c>
       <c r="F22" s="0">
-        <v>6.659</v>
+        <v>5.991</v>
       </c>
       <c r="G22" s="0">
-        <v>6.737</v>
+        <v>5.798</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.788</v>
+        <v>0.878</v>
       </c>
       <c r="B23" s="0">
-        <v>0.803</v>
+        <v>0.858</v>
       </c>
       <c r="C23" s="0">
+        <v>0.836</v>
+      </c>
+      <c r="D23" s="0">
         <v>0.814</v>
       </c>
-      <c r="D23" s="0">
-        <v>0.821</v>
-      </c>
       <c r="E23" s="0">
-        <v>0.827</v>
+        <v>0.791</v>
       </c>
       <c r="F23" s="0">
-        <v>0.837</v>
+        <v>0.767</v>
       </c>
       <c r="G23" s="0">
-        <v>0.843</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.655</v>
+        <v>0.781</v>
       </c>
       <c r="B24" s="0">
-        <v>0.675</v>
+        <v>0.75</v>
       </c>
       <c r="C24" s="0">
+        <v>0.72</v>
+      </c>
+      <c r="D24" s="0">
         <v>0.689</v>
       </c>
-      <c r="D24" s="0">
-        <v>0.699</v>
-      </c>
       <c r="E24" s="0">
-        <v>0.708</v>
+        <v>0.658</v>
       </c>
       <c r="F24" s="0">
-        <v>0.721</v>
+        <v>0.628</v>
       </c>
       <c r="G24" s="0">
-        <v>0.73</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.067</v>
+        <v>0.07</v>
       </c>
       <c r="B25" s="0">
-        <v>0.091</v>
+        <v>0.083</v>
       </c>
       <c r="C25" s="0">
+        <v>0.097</v>
+      </c>
+      <c r="D25" s="0">
         <v>0.114</v>
       </c>
-      <c r="D25" s="0">
-        <v>0.135</v>
-      </c>
       <c r="E25" s="0">
-        <v>0.155</v>
+        <v>0.132</v>
       </c>
       <c r="F25" s="0">
-        <v>0.194</v>
+        <v>0.153</v>
       </c>
       <c r="G25" s="0">
-        <v>0.231</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>298.21</v>
+        <v>285.638</v>
       </c>
       <c r="B26" s="0">
-        <v>219.021</v>
+        <v>241.387</v>
       </c>
       <c r="C26" s="0">
+        <v>205.339</v>
+      </c>
+      <c r="D26" s="0">
         <v>175.755</v>
       </c>
-      <c r="D26" s="0">
-        <v>148.084</v>
-      </c>
       <c r="E26" s="0">
-        <v>128.692</v>
+        <v>151.305</v>
       </c>
       <c r="F26" s="0">
-        <v>103.054</v>
+        <v>130.965</v>
       </c>
       <c r="G26" s="0">
-        <v>86.691</v>
+        <v>113.938</v>
       </c>
     </row>
   </sheetData>
